--- a/biology/Botanique/Val-de-montferrand/Val-de-montferrand.xlsx
+++ b/biology/Botanique/Val-de-montferrand/Val-de-montferrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le val-de-montferrand  est un vin français faisant partie de l'Indication géographique protégée saint-guilhem-le-désert au sein du vignoble du Languedoc-Roussillon, produit dans 46 communes du département de l'Hérault et trois communes du département du Gard. Les vins produits sur le territoire de l’appellation peuvent être rouges, rosés ou blancs.
@@ -512,9 +524,11 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux cépages de l'appellation sont le chardonnay, le viognier, le muscat blanc à petits grains et le sauvignon (vins blancs), le cabernet sauvignon, le cabernet franc, le petit verdot, le merlot et le pinot noir (rouges et rosés)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux cépages de l'appellation sont le chardonnay, le viognier, le muscat blanc à petits grains et le sauvignon (vins blancs), le cabernet sauvignon, le cabernet franc, le petit verdot, le merlot et le pinot noir (rouges et rosés).
 </t>
         </is>
       </c>
